--- a/applications/Brazil/Manaus_projections.xlsx
+++ b/applications/Brazil/Manaus_projections.xlsx
@@ -414,7 +414,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>97746</v>
+        <v>104797</v>
       </c>
       <c r="B4">
         <v>52635</v>
       </c>
       <c r="C4">
-        <v>207416</v>
+        <v>139084</v>
       </c>
       <c r="D4">
-        <v>2.985390534840475</v>
+        <v>3.200744499822778</v>
       </c>
       <c r="E4">
         <v>1.607595510827332</v>
       </c>
       <c r="F4">
-        <v>6.334967806094081</v>
+        <v>4.247949349822526</v>
       </c>
       <c r="G4">
-        <v>672466</v>
+        <v>649000</v>
       </c>
       <c r="H4">
         <v>349066</v>
       </c>
       <c r="I4">
-        <v>1204133</v>
+        <v>726733</v>
       </c>
       <c r="J4">
-        <v>0.3190277540490328</v>
+        <v>0.2985780501886466</v>
       </c>
       <c r="K4">
         <v>0.2647127152897135</v>
       </c>
       <c r="L4">
-        <v>0.3656841394760398</v>
+        <v>0.3068017172397928</v>
       </c>
       <c r="M4">
-        <v>71148</v>
+        <v>82236</v>
       </c>
       <c r="N4">
         <v>46167</v>
       </c>
       <c r="O4">
-        <v>131802</v>
+        <v>163955</v>
       </c>
       <c r="P4">
-        <v>2.274096616759754</v>
+        <v>2.628501284306729</v>
       </c>
       <c r="Q4">
         <v>1.475631338982791</v>
       </c>
       <c r="R4">
-        <v>4.212774530305408</v>
+        <v>5.240477747805217</v>
       </c>
       <c r="S4">
-        <v>482720</v>
+        <v>577116</v>
       </c>
       <c r="T4">
         <v>326162</v>
       </c>
       <c r="U4">
-        <v>980790</v>
+        <v>1060604</v>
       </c>
       <c r="V4">
-        <v>0.3544805265213534</v>
+        <v>0.3402142699706385</v>
       </c>
       <c r="W4">
         <v>0.2888064900146836</v>
       </c>
       <c r="X4">
-        <v>0.4318444591785285</v>
+        <v>0.3871252333285809</v>
       </c>
     </row>
   </sheetData>
